--- a/biology/Zoologie/Gauphre_à_poche_géant/Gauphre_à_poche_géant.xlsx
+++ b/biology/Zoologie/Gauphre_à_poche_géant/Gauphre_à_poche_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gauphre_%C3%A0_poche_g%C3%A9ant</t>
+          <t>Gauphre_à_poche_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthogeomys grandis
-Le Gauphre à poche géant (Orthogeomys grandis)[1] est une espèce de rongeurs faisant partie de la famille des géomyidés. Une famille de petits mammifères terrestres appelés gaufres ou rats à poche, c'est-à-dire à larges abajoues. Ce gaufre aurait de nombreuses sous espèces[2].
-L'espèce a été décrite pour la première fois en 1893 par le zoologiste anglais Michael Rogers Oldfield Thomas (1858-1929) sous le nom de Geomys grandis, mais modifiée en Orthogeomys grandis par Meriam en 1895 et Hall en 1981[3].
+Le Gauphre à poche géant (Orthogeomys grandis) est une espèce de rongeurs faisant partie de la famille des géomyidés. Une famille de petits mammifères terrestres appelés gaufres ou rats à poche, c'est-à-dire à larges abajoues. Ce gaufre aurait de nombreuses sous espèces.
+L'espèce a été décrite pour la première fois en 1893 par le zoologiste anglais Michael Rogers Oldfield Thomas (1858-1929) sous le nom de Geomys grandis, mais modifiée en Orthogeomys grandis par Meriam en 1895 et Hall en 1981.
 On rencontre le Gauphre à poche géant en Amérique du Sud (Salvador, Guatemala, Honduras et Mexique).
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gauphre_%C3%A0_poche_g%C3%A9ant</t>
+          <t>Gauphre_à_poche_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (8 nov. 2012)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (8 nov. 2012) :
 sous-espèce Orthogeomys grandis alleni
 sous-espèce Orthogeomys grandis alvarezi
 sous-espèce Orthogeomys grandis annexus
